--- a/Queries.xlsx
+++ b/Queries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoogleDrive\Journal\Advanced Engineering Informatics (2020)\Revision\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D0C9FA-DD9B-4416-BC0B-E3123DF552A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADF0CC9-E874-4387-B190-380947FA199A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5475" yWindow="2130" windowWidth="21060" windowHeight="11385" xr2:uid="{90AB7E10-148D-48B9-AE0B-B4C7A8C60E48}"/>
+    <workbookView xWindow="5955" yWindow="3135" windowWidth="21060" windowHeight="11385" xr2:uid="{90AB7E10-148D-48B9-AE0B-B4C7A8C60E48}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,9 +126,6 @@
     <t>What is the height of door 28?</t>
   </si>
   <si>
-    <t>Elevation of stoery 02.</t>
-  </si>
-  <si>
     <t>Can you identify the elevation of stoery 02?</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
     <t>Tell me height of storey 02.</t>
   </si>
   <si>
-    <t>Tell me the elevation of storey 02.</t>
-  </si>
-  <si>
     <t>Height of the floor 3.</t>
   </si>
   <si>
@@ -162,9 +156,6 @@
     <t>Can you identify the elevation of level 3?</t>
   </si>
   <si>
-    <t>Elevation of level 3.</t>
-  </si>
-  <si>
     <t>Tell me the height of window 312?</t>
   </si>
   <si>
@@ -177,9 +168,6 @@
     <t>Tell me the elevation of third floor.</t>
   </si>
   <si>
-    <t>Elevation of third floor.</t>
-  </si>
-  <si>
     <t>Can you identify the elevation of third floor?</t>
   </si>
   <si>
@@ -201,9 +189,6 @@
     <t>What is the description about the door 211?</t>
   </si>
   <si>
-    <t>What is the height of the door 211?</t>
-  </si>
-  <si>
     <t>What is the description about the third floor?</t>
   </si>
   <si>
@@ -222,13 +207,28 @@
     <t>What is the width of door 12?</t>
   </si>
   <si>
-    <t>Width of the door 12.</t>
-  </si>
-  <si>
     <t>Tell me the height of the door 12.</t>
   </si>
   <si>
     <t>What is the type of window 2?</t>
+  </si>
+  <si>
+    <t>Elevation of floor 03 TO Third Floor.</t>
+  </si>
+  <si>
+    <t>Tell me the elevation of 03 TO Third Floor.</t>
+  </si>
+  <si>
+    <t>Elevation of 02 FL 02 T.O. SLAB.</t>
+  </si>
+  <si>
+    <t>What is the height of the door:300135?</t>
+  </si>
+  <si>
+    <t>Elevation of 01-EPG.</t>
+  </si>
+  <si>
+    <t>Width of the door:1012722.</t>
   </si>
 </sst>
 </file>
@@ -631,7 +631,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,10 +671,10 @@
         <v>19</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -688,10 +688,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -702,13 +702,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -719,13 +719,13 @@
         <v>16</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -733,16 +733,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -753,13 +753,13 @@
         <v>17</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -773,10 +773,10 @@
         <v>21</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -790,10 +790,10 @@
         <v>22</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -807,10 +807,10 @@
         <v>23</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -824,10 +824,10 @@
         <v>25</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -841,10 +841,10 @@
         <v>24</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -858,10 +858,10 @@
         <v>26</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -875,10 +875,10 @@
         <v>27</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -892,10 +892,10 @@
         <v>28</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -909,10 +909,10 @@
         <v>29</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
